--- a/pareto/tests/strategic_toy_case_study_infeasibility_capacity.xlsx
+++ b/pareto/tests/strategic_toy_case_study_infeasibility_capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4D3E5-F0FC-48EE-83CE-A1E4F0F5829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361D8EA5-0E23-4169-9DA4-152CB810572A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="953" firstSheet="47" activeTab="48" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="953" firstSheet="2" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="317">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1082,6 +1082,21 @@
   </si>
   <si>
     <t>External Water Sources to Completions Pads Trucking Arcs [-]</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Mass units is used for measuring emissions coefficients (e.g. 10g per treated produced water bbl).</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>1000g</t>
   </si>
 </sst>
 </file>
@@ -5496,10 +5511,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5524,12 +5539,12 @@
     <col min="54" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -5549,7 +5564,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
@@ -5579,7 +5594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>54</v>
       </c>
@@ -5603,7 +5618,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>59</v>
       </c>
@@ -5621,7 +5636,7 @@
       <c r="J5" s="52"/>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>62</v>
       </c>
@@ -5645,7 +5660,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>66</v>
       </c>
@@ -5669,7 +5684,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="54"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>71</v>
       </c>
@@ -5711,7 +5726,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>252</v>
       </c>
@@ -5759,7 +5774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>257</v>
       </c>
@@ -5801,33 +5816,33 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="56"/>
+      <c r="I11" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="54" t="s">
         <v>81</v>
       </c>
       <c r="AU11" s="1" t="s">
@@ -5837,11 +5852,33 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
       <c r="AU12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BB12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7532,7 +7569,7 @@
   </sheetPr>
   <dimension ref="A1:BA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
